--- a/content/posts/0010/static/results.xlsx
+++ b/content/posts/0010/static/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enrico.pesce/Documents/source/blog/content/posts/0010/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB3A159-ECBF-1649-B1F1-72BE99D82199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ED0F7C-0213-0742-A652-62D2E01EAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27320" xr2:uid="{6AB156C2-4A3F-9845-B315-CEEACE89F48B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$H$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>SINGLE</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>Geekbench browser</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>B93113</t>
+  </si>
+  <si>
+    <t>B97384</t>
+  </si>
+  <si>
+    <t>B93297</t>
+  </si>
+  <si>
+    <t>B94176</t>
+  </si>
+  <si>
+    <t>B93311</t>
   </si>
 </sst>
 </file>
@@ -115,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +151,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,19 +180,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,437 +507,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7C8EAB-F559-504C-BCB7-0B00BA7A8BCC}">
-  <dimension ref="A1:H16"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2070</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8335</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="1">
+        <f>G2*744*4</f>
+        <v>89.28</v>
+      </c>
+      <c r="I2" s="4">
+        <f>(H2-H4)/H2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1697</v>
+      </c>
+      <c r="E3">
+        <v>6365</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.0220000000000001E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3*744*4</f>
+        <v>149.45472000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(H3-H4)/H3</f>
+        <v>0.60175228992433294</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1125</v>
+      </c>
+      <c r="E4">
+        <v>6275</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4*744*8</f>
+        <v>59.52</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(H4-H4)/H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1595</v>
+      </c>
+      <c r="E5">
+        <v>6266</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G5*744*4</f>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(H5-H4)/H5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1567</v>
+      </c>
+      <c r="E6">
+        <v>5925</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6*744*4</f>
+        <v>119.04</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(H6-H4)/H6</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2047</v>
+      </c>
+      <c r="E7">
+        <v>4764</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="G2" s="1">
-        <f>F2*744</f>
+      <c r="H7" s="1">
+        <f t="shared" ref="H2:H16" si="0">G7*744</f>
         <v>20.7576</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1115</v>
+      </c>
+      <c r="E8">
+        <v>3728</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9191999999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1572</v>
+      </c>
+      <c r="E9">
+        <v>3652</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.325E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>17.297999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1663</v>
+      </c>
+      <c r="E10">
+        <v>3590</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.0220000000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>37.363680000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1697</v>
-      </c>
-      <c r="D3">
-        <v>6365</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1572</v>
+      </c>
+      <c r="E11">
+        <v>3349</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>27.676799999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D12">
+        <v>2031</v>
+      </c>
+      <c r="E12">
+        <v>2584</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>20.7576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1140</v>
+      </c>
+      <c r="E13">
+        <v>2078</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9191999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1674</v>
+      </c>
+      <c r="E14">
+        <v>1942</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
         <v>5.0220000000000001E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f>F3*744</f>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
         <v>37.363680000000002</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1509</v>
+      </c>
+      <c r="E15">
+        <v>1906</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.325E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>17.297999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1125</v>
-      </c>
-      <c r="D4">
-        <v>6275</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <f>F4*744</f>
-        <v>6.9191999999999991</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1595</v>
-      </c>
-      <c r="D5">
-        <v>6266</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.325E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <f>F5*744</f>
-        <v>17.297999999999998</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1567</v>
-      </c>
-      <c r="D6">
-        <v>5925</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1531</v>
+      </c>
+      <c r="E16">
+        <v>1788</v>
+      </c>
+      <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G16" s="2">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G6" s="1">
-        <f>F6*744</f>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
         <v>27.676799999999997</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>2047</v>
-      </c>
-      <c r="D7">
-        <v>4764</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="G7" s="1">
-        <f>F7*744</f>
-        <v>20.7576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1115</v>
-      </c>
-      <c r="D8">
-        <v>3728</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="G8" s="1">
-        <f>F8*744</f>
-        <v>6.9191999999999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1572</v>
-      </c>
-      <c r="D9">
-        <v>3652</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.325E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <f>F9*744</f>
-        <v>17.297999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>1663</v>
-      </c>
-      <c r="D10">
-        <v>3590</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5.0220000000000001E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10*744</f>
-        <v>37.363680000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>1572</v>
-      </c>
-      <c r="D11">
-        <v>3349</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <f>F11*744</f>
-        <v>27.676799999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>2031</v>
-      </c>
-      <c r="D12">
-        <v>2584</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <f>F12*744</f>
-        <v>20.7576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>1140</v>
-      </c>
-      <c r="D13">
-        <v>2078</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="G13" s="1">
-        <f>F13*744</f>
-        <v>6.9191999999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1674</v>
-      </c>
-      <c r="D14">
-        <v>1942</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5.0220000000000001E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <f>F14*744</f>
-        <v>37.363680000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1509</v>
-      </c>
-      <c r="D15">
-        <v>1906</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.325E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <f>F15*744</f>
-        <v>17.297999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>1531</v>
-      </c>
-      <c r="D16">
-        <v>1788</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="G16" s="1">
-        <f>F16*744</f>
-        <v>27.676799999999997</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{5C7C8EAB-F559-504C-BCB7-0B00BA7A8BCC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition descending="1" ref="D1:D16"/>
+  <autoFilter ref="B1:H16" xr:uid="{5C7C8EAB-F559-504C-BCB7-0B00BA7A8BCC}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="8"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H16">
+      <sortCondition descending="1" ref="E1:E16"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" xr:uid="{314CCB20-2ACA-C341-ACCA-8B35937205F2}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{50865AA2-FC37-1D46-A9CA-9541CBEF15ED}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{1B12D1EC-3451-FC49-953C-4F331EFC2159}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{93692D0A-8FB9-474C-9957-D59C983479D9}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{26310544-5C95-2041-B773-207556F1E630}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{314CCB20-2ACA-C341-ACCA-8B35937205F2}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{50865AA2-FC37-1D46-A9CA-9541CBEF15ED}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{1B12D1EC-3451-FC49-953C-4F331EFC2159}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{93692D0A-8FB9-474C-9957-D59C983479D9}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{26310544-5C95-2041-B773-207556F1E630}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="H5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>